--- a/template_pegase_v1/crudesolidenergy.xlsx
+++ b/template_pegase_v1/crudesolidenergy.xlsx
@@ -14,52 +14,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
-    <t>operator</t>
+    <t>Operator</t>
   </si>
   <si>
-    <t>sampleid</t>
+    <t>SampleID</t>
   </si>
   <si>
-    <t>sampleportion</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>LaboratoryOperatingMode</t>
   </si>
   <si>
-    <t>date</t>
+    <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>rawdatapathway</t>
+    <t>CriticalProduct</t>
   </si>
   <si>
-    <t>bombidentity</t>
+    <t>RawDataPathway</t>
   </si>
   <si>
-    <t>operatingmode</t>
+    <t>BombIdentity</t>
   </si>
   <si>
-    <t>crucibletype</t>
+    <t>CrucibleType</t>
   </si>
   <si>
-    <t>criticalapparatuscriticalsoftware</t>
+    <t>OperatingMode</t>
   </si>
   <si>
-    <t>kvalue</t>
+    <t>KValue</t>
   </si>
   <si>
-    <t>criticalproduct</t>
+    <t>Energy</t>
   </si>
   <si>
-    <t>laboratoryoperatingmode</t>
+    <t>SamplePortion</t>
   </si>
   <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#float</t>
+    <t>#date</t>
   </si>
   <si>
-    <t>#date</t>
+    <t>#float</t>
   </si>
 </sst>
 </file>
@@ -162,10 +162,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -183,13 +183,13 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/crudesolidenergy.xlsx
+++ b/template_pegase_v1/crudesolidenergy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Operator</t>
   </si>
@@ -35,24 +35,27 @@
     <t>RawDataPathway</t>
   </si>
   <si>
-    <t>BombIdentity</t>
+    <t>BombNumber</t>
   </si>
   <si>
     <t>CrucibleType</t>
   </si>
   <si>
-    <t>OperatingMode</t>
+    <t>Programme</t>
   </si>
   <si>
     <t>KValue</t>
   </si>
   <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
     <t>#string</t>
   </si>
   <si>
@@ -60,6 +63,60 @@
   </si>
   <si>
     <t>#float</t>
+  </si>
+  <si>
+    <t>#float,  unit:ml</t>
+  </si>
+  <si>
+    <t>#float,  unit:joules</t>
+  </si>
+  <si>
+    <t>#float,  unit:mg</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t>#NumeroBombe</t>
+  </si>
+  <si>
+    <t>#TypeCreuset</t>
+  </si>
+  <si>
+    <t>#Programme</t>
+  </si>
+  <si>
+    <t>#ValeurK</t>
+  </si>
+  <si>
+    <t>#PriseEssai</t>
+  </si>
+  <si>
+    <t>#UnitePriseEssai</t>
+  </si>
+  <si>
+    <t>#Energie</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -104,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,46 +207,105 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/crudesolidenergy.xlsx
+++ b/template_pegase_v1/crudesolidenergy.xlsx
@@ -14,27 +14,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>BombNumber</t>
   </si>
   <si>
@@ -56,12 +56,12 @@
     <t>Energy</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#float</t>
   </si>
   <si>
@@ -74,25 +74,25 @@
     <t>#float,  unit:mg</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t>#NumeroBombe</t>
@@ -219,31 +219,31 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -252,7 +252,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>

--- a/template_pegase_v1/crudesolidenergy.xlsx
+++ b/template_pegase_v1/crudesolidenergy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -56,6 +59,9 @@
     <t>Energy</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -74,25 +80,28 @@
     <t>#float,  unit:mg</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t>#NumeroBombe</t>
@@ -117,6 +126,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -211,101 +223,119 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
